--- a/test_data/test_resourcepool.xlsx
+++ b/test_data/test_resourcepool.xlsx
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>裸金属2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>baremetal</t>
   </si>
   <si>
@@ -137,6 +133,10 @@
   </si>
   <si>
     <t>region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裸金属</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +497,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -533,25 +533,25 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>7003</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -565,7 +565,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,34 +576,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -611,31 +611,31 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>7003</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>7003</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -659,16 +659,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -676,13 +676,13 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
